--- a/biology/Botanique/Pustula_obtusata/Pustula_obtusata.xlsx
+++ b/biology/Botanique/Pustula_obtusata/Pustula_obtusata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pustula obtusata est une espèce d'oomycètes phytopathogènes  de la famille des Albuginaceae.
 Ce pseudo-champignon, parasite obligatoire, est responsable de maladies cryptogamiques, notamment chez les plantes de la famille des Asteraceae (Composées), comme la rouille blanche des composées.
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude récente (2012), considérant une reconstruction phylogénique antérieure et les caractéristiques d'ornementation des oospores a renommé cet organisme spécifique du salsifis (Tragopogon), Pustula obtusata en lieu et place de  Pustula tragopogonis (syn. Albugo tragopogonis), tandis que l'organisme spécifique du tournesol est reclassé dans une nouvelle espèce, Pustula helianthicola[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude récente (2012), considérant une reconstruction phylogénique antérieure et les caractéristiques d'ornementation des oospores a renommé cet organisme spécifique du salsifis (Tragopogon), Pustula obtusata en lieu et place de  Pustula tragopogonis (syn. Albugo tragopogonis), tandis que l'organisme spécifique du tournesol est reclassé dans une nouvelle espèce, Pustula helianthicola.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2015) :
 Albugo tragopogonis (Pers.) Gray 1821,
 Albugo tragopogonis var. cirsii Cif. &amp; Biga 1955,
 Albugo tragopogonis var. inulae Cif. &amp; Biga 1955,
